--- a/biology/Botanique/Ericaria_selaginoides/Ericaria_selaginoides.xlsx
+++ b/biology/Botanique/Ericaria_selaginoides/Ericaria_selaginoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ericaria selaginoides (synonymes : Cystoseira tamariscifolia, Carpodesmia tamariscifolia) est une espèce d’algues brunes de la famille des Sargassaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ericaria selaginoides a pour synonymes selon AlgaeBase                                           (17 janvier 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ericaria selaginoides a pour synonymes selon AlgaeBase                                           (17 janvier 2024) :
 synonymes homotypiques :
 Fucus selaginoides L., 1759 ;
 Cystoseira selaginoides (L.) Bory, 1832 ;
@@ -557,9 +571,11 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Immergée, son iridescence bleu turquoise est caractéristique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Immergée, son iridescence bleu turquoise est caractéristique.
 </t>
         </is>
       </c>
@@ -588,9 +604,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de distribution s'étend entre les côtes de l'Europe de l'ouest, les îles de la Macaronésie et les côtes de la mer Méditerranée[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de distribution s'étend entre les côtes de l'Europe de l'ouest, les îles de la Macaronésie et les côtes de la mer Méditerranée.
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe en milieux abrités, dans les étages médiolittoral et infralittoral[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe en milieux abrités, dans les étages médiolittoral et infralittoral.
 </t>
         </is>
       </c>
@@ -650,9 +670,11 @@
           <t>Études et utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type d'algues fait l'objet d'études concernant ses importantes propriétés antioxydantes et cytotoxiques[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type d'algues fait l'objet d'études concernant ses importantes propriétés antioxydantes et cytotoxiques.
 </t>
         </is>
       </c>
